--- a/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_15_.xlsx
+++ b/reports/_MSC MEDITERRANEAM SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_15_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -581,12 +582,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -606,7 +608,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -727,12 +729,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -746,7 +749,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -814,212 +817,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1160,12 +1171,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1179,7 +1191,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1249,215 +1261,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1598,12 +1618,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1617,7 +1638,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1682,266 +1703,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:142</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>8789</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>TCLU5007958</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>MED</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>HANSA STRALSUND</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2286/09</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>APOLLO SHIPPING SERVICES</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>WASTE AND SCRAP</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>132465</v>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0" t="d">
-        <v>2009-12-28T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2009-12-29T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>MSCUNQ793498</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t>MHGL-3</t>
-        </is>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8790</v>
+        <v>8789</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>MSCU7881359</t>
+          <t>TCLU5007958</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1997,7 +1920,7 @@
         </is>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>132462</v>
+        <v>132465</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
@@ -2042,19 +1965,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8824</v>
+        <v>8790</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>FCIU2706953</t>
+          <t>MSCU7881359</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -2074,17 +1997,17 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>HYUNDAI ADVANCE</t>
+          <t>HANSA STRALSUND</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>3182/2016</t>
+          <t>2286/09</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>S.  S.  STEEL  (PVT.)  LTD.</t>
+          <t>APOLLO SHIPPING SERVICES</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -2098,29 +2021,23 @@
       <c r="O9" s="0"/>
       <c r="P9" s="0" t="inlineStr">
         <is>
-          <t>SCRAP</t>
-        </is>
-      </c>
-      <c r="Q9" s="0" t="inlineStr">
-        <is>
-          <t>CMA CGM D361755</t>
-        </is>
+          <t>WASTE AND SCRAP</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>132462</v>
       </c>
       <c r="R9" s="0"/>
-      <c r="S9" s="0" t="inlineStr">
-        <is>
-          <t>2016-20114</t>
-        </is>
-      </c>
+      <c r="S9" s="0"/>
       <c r="T9" s="0" t="d">
-        <v>2016-11-24T00:00:00</v>
+        <v>2009-12-28T00:00:00</v>
       </c>
       <c r="U9" s="0" t="d">
-        <v>2016-11-25T00:00:00</v>
+        <v>2009-12-29T00:00:00</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="W9" s="0" t="inlineStr">
@@ -2128,16 +2045,20 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="X9" s="0" t="n">
-        <v>0</v>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>MSCUNQ793498</t>
+        </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
         <is>
-          <t>MSCUU5353596</t>
-        </is>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>34</v>
+          <t/>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t>MHGL-3</t>
+        </is>
       </c>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0" t="inlineStr">
@@ -2149,11 +2070,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8825</v>
+        <v>8824</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>MEDU3897081</t>
+          <t>FCIU2706953</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2210,20 +2131,20 @@
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>MSC EU10014921</t>
+          <t>CMA CGM D361755</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2016-20199</t>
+          <t>2016-20114</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
         <v>2016-11-24T00:00:00</v>
       </c>
       <c r="U10" s="0" t="d">
-        <v>2016-11-26T00:00:00</v>
+        <v>2016-11-25T00:00:00</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
@@ -2256,11 +2177,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8826</v>
+        <v>8825</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>TCKU3169952</t>
+          <t>MEDU3897081</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2317,13 +2238,13 @@
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>MSC EU10014941</t>
+          <t>MSC EU10014921</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2016-20092</t>
+          <t>2016-20199</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2363,11 +2284,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8827</v>
+        <v>8826</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>DFSU1522683</t>
+          <t>TCKU3169952</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2424,13 +2345,13 @@
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>MSC EU10015770</t>
+          <t>MSC EU10014941</t>
         </is>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2016-20200</t>
+          <t>2016-20092</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
@@ -2470,11 +2391,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>TCLU7627897</t>
+          <t>DFSU1522683</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2531,13 +2452,13 @@
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>MSC EU09536949</t>
+          <t>MSC EU10015770</t>
         </is>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2016-20202</t>
+          <t>2016-20200</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
@@ -2577,19 +2498,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8911</v>
+        <v>8828</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MEDU4712937</t>
+          <t>TCLU7627897</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -2609,17 +2530,17 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>OEL HIND</t>
+          <t>HYUNDAI ADVANCE</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>1931/2018</t>
+          <t>3182/2016</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>IPORT LOGISTICS LIMITED</t>
+          <t>S.  S.  STEEL  (PVT.)  LTD.</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2633,25 +2554,25 @@
       <c r="O14" s="0"/>
       <c r="P14" s="0" t="inlineStr">
         <is>
-          <t>MEAT &amp; BONE MEAL</t>
+          <t>SCRAP</t>
         </is>
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>FEX3405640</t>
+          <t>MSC EU09536949</t>
         </is>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-10830</t>
+          <t>2016-20202</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
-        <v>2018-06-28T00:00:00</v>
+        <v>2016-11-24T00:00:00</v>
       </c>
       <c r="U14" s="0" t="d">
-        <v>2018-06-29T00:00:00</v>
+        <v>2016-11-26T00:00:00</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2668,11 +2589,11 @@
       </c>
       <c r="Y14" s="0" t="inlineStr">
         <is>
-          <t>MSCUJ7675224</t>
+          <t>MSCUU5353596</t>
         </is>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0" t="inlineStr">
@@ -2684,11 +2605,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8912</v>
+        <v>8911</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>CAIU7777777</t>
+          <t>MEDU4712937</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2745,13 +2666,13 @@
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>FEX3409736</t>
+          <t>FEX3405640</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-10826</t>
+          <t>2018-10830</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2791,11 +2712,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>MEDU4524821</t>
+          <t>CAIU7777777</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2852,13 +2773,13 @@
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>FEX3409600</t>
+          <t>FEX3409736</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-10825</t>
+          <t>2018-10826</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2898,11 +2819,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8914</v>
+        <v>8913</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>TCNU2900898</t>
+          <t>MEDU4524821</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2959,20 +2880,20 @@
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>FEX3409682</t>
+          <t>FEX3409600</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-11008</t>
+          <t>2018-10825</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
         <v>2018-06-28T00:00:00</v>
       </c>
       <c r="U17" s="0" t="d">
-        <v>2018-07-02T00:00:00</v>
+        <v>2018-06-29T00:00:00</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -3005,11 +2926,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>8915</v>
+        <v>8914</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>MEDU7443220</t>
+          <t>TCNU2900898</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3066,20 +2987,20 @@
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>FEX3405745</t>
+          <t>FEX3409682</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-11126</t>
+          <t>2018-11008</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
         <v>2018-06-28T00:00:00</v>
       </c>
       <c r="U18" s="0" t="d">
-        <v>2018-07-05T00:00:00</v>
+        <v>2018-07-02T00:00:00</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
@@ -3112,11 +3033,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>8916</v>
+        <v>8915</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>TLLU5063775</t>
+          <t>MEDU7443220</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3173,20 +3094,20 @@
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>FEX3405694</t>
+          <t>FEX3405745</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-10827</t>
+          <t>2018-11126</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
         <v>2018-06-28T00:00:00</v>
       </c>
       <c r="U19" s="0" t="d">
-        <v>2018-07-06T00:00:00</v>
+        <v>2018-07-05T00:00:00</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
@@ -3219,11 +3140,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>TLLU5051060</t>
+          <t>TLLU5063775</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3280,20 +3201,20 @@
       </c>
       <c r="Q20" s="0" t="inlineStr">
         <is>
-          <t>FEX3409731</t>
+          <t>FEX3405694</t>
         </is>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>2018-11009</t>
+          <t>2018-10827</t>
         </is>
       </c>
       <c r="T20" s="0" t="d">
         <v>2018-06-28T00:00:00</v>
       </c>
       <c r="U20" s="0" t="d">
-        <v>2018-07-09T00:00:00</v>
+        <v>2018-07-06T00:00:00</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3326,19 +3247,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9442</v>
+        <v>8917</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>TGHU2443999</t>
+          <t>TLLU5051060</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3358,17 +3279,17 @@
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>TR ARAMIS</t>
+          <t>OEL HIND</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>2717/2018</t>
+          <t>1931/2018</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>CSS  CORPORATION  (BD)  LTD</t>
+          <t>IPORT LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -3382,23 +3303,25 @@
       <c r="O21" s="0"/>
       <c r="P21" s="0" t="inlineStr">
         <is>
-          <t>SCRAP</t>
-        </is>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>171710993</v>
+          <t>MEAT &amp; BONE MEAL</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="inlineStr">
+        <is>
+          <t>FEX3409731</t>
+        </is>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>2018-15286</t>
+          <t>2018-11009</t>
         </is>
       </c>
       <c r="T21" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
+        <v>2018-06-28T00:00:00</v>
       </c>
       <c r="U21" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-07-09T00:00:00</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
@@ -3415,11 +3338,11 @@
       </c>
       <c r="Y21" s="0" t="inlineStr">
         <is>
-          <t>MSCUW9238582</t>
+          <t>MSCUJ7675224</t>
         </is>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="0"/>
       <c r="AB21" s="0" t="inlineStr">
@@ -3431,11 +3354,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9443</v>
+        <v>9442</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>MSCU6542160</t>
+          <t>TGHU2443999</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3490,15 +3413,13 @@
           <t>SCRAP</t>
         </is>
       </c>
-      <c r="Q22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q22" s="0" t="n">
+        <v>171710993</v>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>2018-15294</t>
+          <t>2018-15286</t>
         </is>
       </c>
       <c r="T22" s="0" t="d">
@@ -3538,11 +3459,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9444</v>
+        <v>9443</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>FCIU3571770</t>
+          <t>MSCU6542160</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3597,13 +3518,15 @@
           <t>SCRAP</t>
         </is>
       </c>
-      <c r="Q23" s="0" t="n">
-        <v>171648647</v>
+      <c r="Q23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="R23" s="0"/>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>2018-15301</t>
+          <t>2018-15294</t>
         </is>
       </c>
       <c r="T23" s="0" t="d">
@@ -3643,11 +3566,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9445</v>
+        <v>9444</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>FCIU2809083</t>
+          <t>FCIU3571770</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3703,12 +3626,12 @@
         </is>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>171714458</v>
+        <v>171648647</v>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>2018-15299</t>
+          <t>2018-15301</t>
         </is>
       </c>
       <c r="T24" s="0" t="d">
@@ -3748,11 +3671,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9446</v>
+        <v>9445</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>MEDU6704165</t>
+          <t>FCIU2809083</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3808,12 +3731,12 @@
         </is>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>171714335</v>
+        <v>171714458</v>
       </c>
       <c r="R25" s="0"/>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>2018-15292</t>
+          <t>2018-15299</t>
         </is>
       </c>
       <c r="T25" s="0" t="d">
@@ -3853,11 +3776,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9447</v>
+        <v>9446</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>TCKU3678245</t>
+          <t>MEDU6704165</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3913,19 +3836,19 @@
         </is>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>171710992</v>
+        <v>171714335</v>
       </c>
       <c r="R26" s="0"/>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>2018-15298</t>
+          <t>2018-15292</t>
         </is>
       </c>
       <c r="T26" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U26" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3958,11 +3881,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9448</v>
+        <v>9447</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>IPXU3982597</t>
+          <t>TCKU3678245</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -4018,12 +3941,12 @@
         </is>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>171648617</v>
+        <v>171710992</v>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>2018-15446</t>
+          <t>2018-15298</t>
         </is>
       </c>
       <c r="T27" s="0" t="d">
@@ -4063,11 +3986,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9449</v>
+        <v>9448</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>FBLU3116492</t>
+          <t>IPXU3982597</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4123,12 +4046,12 @@
         </is>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>171648646</v>
+        <v>171648617</v>
       </c>
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>2018-15293</t>
+          <t>2018-15446</t>
         </is>
       </c>
       <c r="T28" s="0" t="d">
@@ -4168,11 +4091,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9450</v>
+        <v>9449</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>MSCU6868408</t>
+          <t>FBLU3116492</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4228,19 +4151,19 @@
         </is>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>171648664</v>
+        <v>171648646</v>
       </c>
       <c r="R29" s="0"/>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>2018-15526</t>
+          <t>2018-15293</t>
         </is>
       </c>
       <c r="T29" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U29" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -4273,11 +4196,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9451</v>
+        <v>9450</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>MEDU1516761</t>
+          <t>MSCU6868408</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4333,12 +4256,12 @@
         </is>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>171714454</v>
+        <v>171648664</v>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>2018-15463</t>
+          <t>2018-15526</t>
         </is>
       </c>
       <c r="T30" s="0" t="d">
@@ -4378,11 +4301,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9460</v>
+        <v>9451</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>MEDU2180270</t>
+          <t>MEDU1516761</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4438,19 +4361,19 @@
         </is>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>171626734</v>
+        <v>171714454</v>
       </c>
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>2018-15295</t>
+          <t>2018-15463</t>
         </is>
       </c>
       <c r="T31" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U31" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
@@ -4467,11 +4390,11 @@
       </c>
       <c r="Y31" s="0" t="inlineStr">
         <is>
-          <t>MSCUW9249316</t>
+          <t>MSCUW9238582</t>
         </is>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0" t="inlineStr">
@@ -4483,11 +4406,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9461</v>
+        <v>9460</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>MSCU3531917</t>
+          <t>MEDU2180270</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4543,12 +4466,12 @@
         </is>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>171622412</v>
+        <v>171626734</v>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>2018-15303</t>
+          <t>2018-15295</t>
         </is>
       </c>
       <c r="T32" s="0" t="d">
@@ -4588,11 +4511,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>MEDU1407924</t>
+          <t>MSCU3531917</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4648,12 +4571,12 @@
         </is>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>171767455</v>
+        <v>171622412</v>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>2018-15306</t>
+          <t>2018-15303</t>
         </is>
       </c>
       <c r="T33" s="0" t="d">
@@ -4693,11 +4616,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>MEDU1533630</t>
+          <t>MEDU1407924</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4753,12 +4676,12 @@
         </is>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>171636601</v>
+        <v>171767455</v>
       </c>
       <c r="R34" s="0"/>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>2018-15291</t>
+          <t>2018-15306</t>
         </is>
       </c>
       <c r="T34" s="0" t="d">
@@ -4798,11 +4721,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>MEDU6850658</t>
+          <t>MEDU1533630</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4858,12 +4781,12 @@
         </is>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>171729307</v>
+        <v>171636601</v>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>2018-15311</t>
+          <t>2018-15291</t>
         </is>
       </c>
       <c r="T35" s="0" t="d">
@@ -4903,11 +4826,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9465</v>
+        <v>9464</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>MEDU6210244</t>
+          <t>MEDU6850658</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4963,12 +4886,12 @@
         </is>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>171720961</v>
+        <v>171729307</v>
       </c>
       <c r="R36" s="0"/>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>2018-15290</t>
+          <t>2018-15311</t>
         </is>
       </c>
       <c r="T36" s="0" t="d">
@@ -5008,11 +4931,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9466</v>
+        <v>9465</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>MEDU6829497</t>
+          <t>MEDU6210244</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5068,12 +4991,12 @@
         </is>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>171698586</v>
+        <v>171720961</v>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>2018-15307</t>
+          <t>2018-15290</t>
         </is>
       </c>
       <c r="T37" s="0" t="d">
@@ -5113,11 +5036,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9467</v>
+        <v>9466</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>DFSU2496320</t>
+          <t>MEDU6829497</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5173,12 +5096,12 @@
         </is>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>6201395</v>
+        <v>171698586</v>
       </c>
       <c r="R38" s="0"/>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>2018-15304</t>
+          <t>2018-15307</t>
         </is>
       </c>
       <c r="T38" s="0" t="d">
@@ -5218,11 +5141,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>TRHU2375509</t>
+          <t>DFSU2496320</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5278,12 +5201,12 @@
         </is>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>171728961</v>
+        <v>6201395</v>
       </c>
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>2018-15353</t>
+          <t>2018-15304</t>
         </is>
       </c>
       <c r="T39" s="0" t="d">
@@ -5323,11 +5246,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>GLDU5084849</t>
+          <t>TRHU2375509</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5383,19 +5306,19 @@
         </is>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>171626726</v>
+        <v>171728961</v>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>2018-15370</t>
+          <t>2018-15353</t>
         </is>
       </c>
       <c r="T40" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U40" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
@@ -5428,11 +5351,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9470</v>
+        <v>9469</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>GATU0004900</t>
+          <t>GLDU5084849</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5488,12 +5411,12 @@
         </is>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>171720333</v>
+        <v>171626726</v>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>2018-15371</t>
+          <t>2018-15370</t>
         </is>
       </c>
       <c r="T41" s="0" t="d">
@@ -5533,11 +5456,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9471</v>
+        <v>9470</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>MSCU6528368</t>
+          <t>GATU0004900</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5593,12 +5516,12 @@
         </is>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>171628478</v>
+        <v>171720333</v>
       </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>2018-15372</t>
+          <t>2018-15371</t>
         </is>
       </c>
       <c r="T42" s="0" t="d">
@@ -5638,11 +5561,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>FSCU3574064</t>
+          <t>MSCU6528368</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5698,12 +5621,12 @@
         </is>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>171720189</v>
+        <v>171628478</v>
       </c>
       <c r="R43" s="0"/>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>2018-15377</t>
+          <t>2018-15372</t>
         </is>
       </c>
       <c r="T43" s="0" t="d">
@@ -5743,11 +5666,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9473</v>
+        <v>9472</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>IPXU3135397</t>
+          <t>FSCU3574064</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5803,12 +5726,12 @@
         </is>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>171720190</v>
+        <v>171720189</v>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>2018-15379</t>
+          <t>2018-15377</t>
         </is>
       </c>
       <c r="T44" s="0" t="d">
@@ -5848,11 +5771,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9474</v>
+        <v>9473</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>MEDU1803761</t>
+          <t>IPXU3135397</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5908,12 +5831,12 @@
         </is>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>171770224</v>
+        <v>171720190</v>
       </c>
       <c r="R45" s="0"/>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>2018-15378</t>
+          <t>2018-15379</t>
         </is>
       </c>
       <c r="T45" s="0" t="d">
@@ -5953,11 +5876,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9475</v>
+        <v>9474</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>MEDU1398735</t>
+          <t>MEDU1803761</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -6013,12 +5936,12 @@
         </is>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>171720051</v>
+        <v>171770224</v>
       </c>
       <c r="R46" s="0"/>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>2018-15373</t>
+          <t>2018-15378</t>
         </is>
       </c>
       <c r="T46" s="0" t="d">
@@ -6058,11 +5981,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>MEDU1127501</t>
+          <t>MEDU1398735</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6118,12 +6041,12 @@
         </is>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>171633479</v>
+        <v>171720051</v>
       </c>
       <c r="R47" s="0"/>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>2018-15362</t>
+          <t>2018-15373</t>
         </is>
       </c>
       <c r="T47" s="0" t="d">
@@ -6163,11 +6086,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>TGHU3584538</t>
+          <t>MEDU1127501</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6223,19 +6146,19 @@
         </is>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>171720153</v>
+        <v>171633479</v>
       </c>
       <c r="R48" s="0"/>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>2018-15310</t>
+          <t>2018-15362</t>
         </is>
       </c>
       <c r="T48" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U48" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
@@ -6268,11 +6191,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>MSCU3325752</t>
+          <t>TGHU3584538</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6328,12 +6251,12 @@
         </is>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>171726601</v>
+        <v>171720153</v>
       </c>
       <c r="R49" s="0"/>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>2018-15300</t>
+          <t>2018-15310</t>
         </is>
       </c>
       <c r="T49" s="0" t="d">
@@ -6373,11 +6296,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>TCLU2919788</t>
+          <t>MSCU3325752</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6433,12 +6356,12 @@
         </is>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>171728044</v>
+        <v>171726601</v>
       </c>
       <c r="R50" s="0"/>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>2018-15450</t>
+          <t>2018-15300</t>
         </is>
       </c>
       <c r="T50" s="0" t="d">
@@ -6478,11 +6401,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9480</v>
+        <v>9479</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>DFSU2867606</t>
+          <t>TCLU2919788</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6538,12 +6461,12 @@
         </is>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>171720995</v>
+        <v>171728044</v>
       </c>
       <c r="R51" s="0"/>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>2018-15449</t>
+          <t>2018-15450</t>
         </is>
       </c>
       <c r="T51" s="0" t="d">
@@ -6583,11 +6506,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>MEDU6909735</t>
+          <t>DFSU2867606</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6643,12 +6566,12 @@
         </is>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>171720029</v>
+        <v>171720995</v>
       </c>
       <c r="R52" s="0"/>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>2018-15456</t>
+          <t>2018-15449</t>
         </is>
       </c>
       <c r="T52" s="0" t="d">
@@ -6688,11 +6611,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>MEDU1799471</t>
+          <t>MEDU6909735</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6748,12 +6671,12 @@
         </is>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>171724355</v>
+        <v>171720029</v>
       </c>
       <c r="R53" s="0"/>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>2018-15454</t>
+          <t>2018-15456</t>
         </is>
       </c>
       <c r="T53" s="0" t="d">
@@ -6793,11 +6716,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>MEDU1943085</t>
+          <t>MEDU1799471</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6853,12 +6776,12 @@
         </is>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>171720156</v>
+        <v>171724355</v>
       </c>
       <c r="R54" s="0"/>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>2018-15309</t>
+          <t>2018-15454</t>
         </is>
       </c>
       <c r="T54" s="0" t="d">
@@ -6898,11 +6821,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>MSCU6253492</t>
+          <t>MEDU1943085</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6958,12 +6881,12 @@
         </is>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>171720047</v>
+        <v>171720156</v>
       </c>
       <c r="R55" s="0"/>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>2018-15455</t>
+          <t>2018-15309</t>
         </is>
       </c>
       <c r="T55" s="0" t="d">
@@ -7003,11 +6926,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>MEDU3581787</t>
+          <t>MSCU6253492</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7063,12 +6986,12 @@
         </is>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>171720048</v>
+        <v>171720047</v>
       </c>
       <c r="R56" s="0"/>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>2018-15459</t>
+          <t>2018-15455</t>
         </is>
       </c>
       <c r="T56" s="0" t="d">
@@ -7108,11 +7031,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>FCIU5969505</t>
+          <t>MEDU3581787</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7168,12 +7091,12 @@
         </is>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>171628705</v>
+        <v>171720048</v>
       </c>
       <c r="R57" s="0"/>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>2018-15458</t>
+          <t>2018-15459</t>
         </is>
       </c>
       <c r="T57" s="0" t="d">
@@ -7213,11 +7136,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>FCIU4330206</t>
+          <t>FCIU5969505</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7273,12 +7196,12 @@
         </is>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>171633448</v>
+        <v>171628705</v>
       </c>
       <c r="R58" s="0"/>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>2018-15460</t>
+          <t>2018-15458</t>
         </is>
       </c>
       <c r="T58" s="0" t="d">
@@ -7318,11 +7241,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>MEDU1939064</t>
+          <t>FCIU4330206</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7378,12 +7301,12 @@
         </is>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>171636602</v>
+        <v>171633448</v>
       </c>
       <c r="R59" s="0"/>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>2018-15457</t>
+          <t>2018-15460</t>
         </is>
       </c>
       <c r="T59" s="0" t="d">
@@ -7423,11 +7346,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>GLDU3992370</t>
+          <t>MEDU1939064</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7482,15 +7405,13 @@
           <t>SCRAP</t>
         </is>
       </c>
-      <c r="Q60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q60" s="0" t="n">
+        <v>171636602</v>
       </c>
       <c r="R60" s="0"/>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>2018-15461</t>
+          <t>2018-15457</t>
         </is>
       </c>
       <c r="T60" s="0" t="d">
@@ -7530,11 +7451,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>MEDU6504296</t>
+          <t>GLDU3992370</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7589,13 +7510,15 @@
           <t>SCRAP</t>
         </is>
       </c>
-      <c r="Q61" s="0" t="n">
-        <v>171628477</v>
+      <c r="Q61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="R61" s="0"/>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>2018-15448</t>
+          <t>2018-15461</t>
         </is>
       </c>
       <c r="T61" s="0" t="d">
@@ -7635,11 +7558,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>CRXU1765775</t>
+          <t>MEDU6504296</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7695,12 +7618,12 @@
         </is>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>171728555</v>
+        <v>171628477</v>
       </c>
       <c r="R62" s="0"/>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>2018-15308</t>
+          <t>2018-15448</t>
         </is>
       </c>
       <c r="T62" s="0" t="d">
@@ -7740,11 +7663,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>MEDU6283981</t>
+          <t>CRXU1765775</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7800,19 +7723,19 @@
         </is>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>171628476</v>
+        <v>171728555</v>
       </c>
       <c r="R63" s="0"/>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>2018-15528</t>
+          <t>2018-15308</t>
         </is>
       </c>
       <c r="T63" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U63" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V63" s="0" t="inlineStr">
         <is>
@@ -7845,11 +7768,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>TCKU1698221</t>
+          <t>MEDU6283981</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7905,12 +7828,12 @@
         </is>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>161461408</v>
+        <v>171628476</v>
       </c>
       <c r="R64" s="0"/>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>2018-15451</t>
+          <t>2018-15528</t>
         </is>
       </c>
       <c r="T64" s="0" t="d">
@@ -7950,11 +7873,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>MSCU6768564</t>
+          <t>TCKU1698221</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8010,12 +7933,12 @@
         </is>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>171720240</v>
+        <v>161461408</v>
       </c>
       <c r="R65" s="0"/>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>2018-15462</t>
+          <t>2018-15451</t>
         </is>
       </c>
       <c r="T65" s="0" t="d">
@@ -8055,11 +7978,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>MEDU6566596</t>
+          <t>MSCU6768564</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8115,12 +8038,12 @@
         </is>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>171726604</v>
+        <v>171720240</v>
       </c>
       <c r="R66" s="0"/>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>2018-15527</t>
+          <t>2018-15462</t>
         </is>
       </c>
       <c r="T66" s="0" t="d">
@@ -8160,19 +8083,19 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>TGHU6079442</t>
+          <t>MEDU6566596</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -8202,7 +8125,7 @@
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>KARNAPHULI LTD</t>
+          <t>CSS  CORPORATION  (BD)  LTD</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
@@ -8216,25 +8139,23 @@
       <c r="O67" s="0"/>
       <c r="P67" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q67" s="0" t="inlineStr">
-        <is>
-          <t>EU13961344</t>
-        </is>
+          <t>SCRAP</t>
+        </is>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>171726604</v>
       </c>
       <c r="R67" s="0"/>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>2018-15347</t>
+          <t>2018-15527</t>
         </is>
       </c>
       <c r="T67" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U67" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V67" s="0" t="inlineStr">
         <is>
@@ -8251,11 +8172,11 @@
       </c>
       <c r="Y67" s="0" t="inlineStr">
         <is>
-          <t>MEDUAB003872</t>
+          <t>MSCUW9249316</t>
         </is>
       </c>
       <c r="Z67" s="0" t="n">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="AA67" s="0"/>
       <c r="AB67" s="0" t="inlineStr">
@@ -8267,11 +8188,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>MSCU7200877</t>
+          <t>TGHU6079442</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8328,13 +8249,13 @@
       </c>
       <c r="Q68" s="0" t="inlineStr">
         <is>
-          <t>EU13961341</t>
+          <t>EU13961344</t>
         </is>
       </c>
       <c r="R68" s="0"/>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>2018-15359</t>
+          <t>2018-15347</t>
         </is>
       </c>
       <c r="T68" s="0" t="d">
@@ -8374,11 +8295,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>TLLU4690195</t>
+          <t>MSCU7200877</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8435,13 +8356,13 @@
       </c>
       <c r="Q69" s="0" t="inlineStr">
         <is>
-          <t>EU13961346</t>
+          <t>EU13961341</t>
         </is>
       </c>
       <c r="R69" s="0"/>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>2018-15356</t>
+          <t>2018-15359</t>
         </is>
       </c>
       <c r="T69" s="0" t="d">
@@ -8481,11 +8402,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>CXDU2013950</t>
+          <t>TLLU4690195</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8542,20 +8463,20 @@
       </c>
       <c r="Q70" s="0" t="inlineStr">
         <is>
-          <t>EU13961340</t>
+          <t>EU13961346</t>
         </is>
       </c>
       <c r="R70" s="0"/>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>2018-15447</t>
+          <t>2018-15356</t>
         </is>
       </c>
       <c r="T70" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U70" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V70" s="0" t="inlineStr">
         <is>
@@ -8588,11 +8509,11 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>BMOU6767352</t>
+          <t>CXDU2013950</t>
         </is>
       </c>
       <c r="C71" s="0" t="n">
@@ -8649,13 +8570,13 @@
       </c>
       <c r="Q71" s="0" t="inlineStr">
         <is>
-          <t>EU13961339</t>
+          <t>EU13961340</t>
         </is>
       </c>
       <c r="R71" s="0"/>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>2018-15452</t>
+          <t>2018-15447</t>
         </is>
       </c>
       <c r="T71" s="0" t="d">
@@ -8695,11 +8616,11 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>FCIU8551988</t>
+          <t>BMOU6767352</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
@@ -8756,13 +8677,13 @@
       </c>
       <c r="Q72" s="0" t="inlineStr">
         <is>
-          <t>EU13961348</t>
+          <t>EU13961339</t>
         </is>
       </c>
       <c r="R72" s="0"/>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>2018-15496</t>
+          <t>2018-15452</t>
         </is>
       </c>
       <c r="T72" s="0" t="d">
@@ -8802,11 +8723,11 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>TEMU6580133</t>
+          <t>FCIU8551988</t>
         </is>
       </c>
       <c r="C73" s="0" t="n">
@@ -8863,13 +8784,13 @@
       </c>
       <c r="Q73" s="0" t="inlineStr">
         <is>
-          <t>EU13961343</t>
+          <t>EU13961348</t>
         </is>
       </c>
       <c r="R73" s="0"/>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>2018-15497</t>
+          <t>2018-15496</t>
         </is>
       </c>
       <c r="T73" s="0" t="d">
@@ -8909,11 +8830,11 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>MEDU7872137</t>
+          <t>TEMU6580133</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
@@ -8970,20 +8891,20 @@
       </c>
       <c r="Q74" s="0" t="inlineStr">
         <is>
-          <t>EU13961349</t>
+          <t>EU13961343</t>
         </is>
       </c>
       <c r="R74" s="0"/>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>2018-15630</t>
+          <t>2018-15497</t>
         </is>
       </c>
       <c r="T74" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U74" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V74" s="0" t="inlineStr">
         <is>
@@ -9016,11 +8937,11 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>SEGU6108774</t>
+          <t>MEDU7872137</t>
         </is>
       </c>
       <c r="C75" s="0" t="n">
@@ -9077,13 +8998,13 @@
       </c>
       <c r="Q75" s="0" t="inlineStr">
         <is>
-          <t>EU13961350</t>
+          <t>EU13961349</t>
         </is>
       </c>
       <c r="R75" s="0"/>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>2018-15636</t>
+          <t>2018-15630</t>
         </is>
       </c>
       <c r="T75" s="0" t="d">
@@ -9123,11 +9044,11 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>MSCU7199945</t>
+          <t>SEGU6108774</t>
         </is>
       </c>
       <c r="C76" s="0" t="n">
@@ -9184,13 +9105,13 @@
       </c>
       <c r="Q76" s="0" t="inlineStr">
         <is>
-          <t>EU13961342</t>
+          <t>EU13961350</t>
         </is>
       </c>
       <c r="R76" s="0"/>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>2018-15637</t>
+          <t>2018-15636</t>
         </is>
       </c>
       <c r="T76" s="0" t="d">
@@ -9230,11 +9151,11 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>CAIU7609876</t>
+          <t>MSCU7199945</t>
         </is>
       </c>
       <c r="C77" s="0" t="n">
@@ -9291,13 +9212,13 @@
       </c>
       <c r="Q77" s="0" t="inlineStr">
         <is>
-          <t>EU13961345</t>
+          <t>EU13961342</t>
         </is>
       </c>
       <c r="R77" s="0"/>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>2018-15635</t>
+          <t>2018-15637</t>
         </is>
       </c>
       <c r="T77" s="0" t="d">
@@ -9337,11 +9258,11 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>MEDU4629442</t>
+          <t>CAIU7609876</t>
         </is>
       </c>
       <c r="C78" s="0" t="n">
@@ -9398,20 +9319,20 @@
       </c>
       <c r="Q78" s="0" t="inlineStr">
         <is>
-          <t>EU13742358</t>
+          <t>EU13961345</t>
         </is>
       </c>
       <c r="R78" s="0"/>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>2018-15348</t>
+          <t>2018-15635</t>
         </is>
       </c>
       <c r="T78" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U78" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="V78" s="0" t="inlineStr">
         <is>
@@ -9428,11 +9349,11 @@
       </c>
       <c r="Y78" s="0" t="inlineStr">
         <is>
-          <t>MSCUDO381455</t>
+          <t>MEDUAB003872</t>
         </is>
       </c>
       <c r="Z78" s="0" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA78" s="0"/>
       <c r="AB78" s="0" t="inlineStr">
@@ -9444,11 +9365,11 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>TGBU5708404</t>
+          <t>MEDU4629442</t>
         </is>
       </c>
       <c r="C79" s="0" t="n">
@@ -9505,13 +9426,13 @@
       </c>
       <c r="Q79" s="0" t="inlineStr">
         <is>
-          <t>EU13742351</t>
+          <t>EU13742358</t>
         </is>
       </c>
       <c r="R79" s="0"/>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>2018-15355</t>
+          <t>2018-15348</t>
         </is>
       </c>
       <c r="T79" s="0" t="d">
@@ -9551,11 +9472,11 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>FCIU8716692</t>
+          <t>TGBU5708404</t>
         </is>
       </c>
       <c r="C80" s="0" t="n">
@@ -9612,13 +9533,13 @@
       </c>
       <c r="Q80" s="0" t="inlineStr">
         <is>
-          <t>EU13742356</t>
+          <t>EU13742351</t>
         </is>
       </c>
       <c r="R80" s="0"/>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>2018-15354</t>
+          <t>2018-15355</t>
         </is>
       </c>
       <c r="T80" s="0" t="d">
@@ -9658,11 +9579,11 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>TCLU5009143</t>
+          <t>FCIU8716692</t>
         </is>
       </c>
       <c r="C81" s="0" t="n">
@@ -9719,13 +9640,13 @@
       </c>
       <c r="Q81" s="0" t="inlineStr">
         <is>
-          <t>EU13742352</t>
+          <t>EU13742356</t>
         </is>
       </c>
       <c r="R81" s="0"/>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>2018-15358</t>
+          <t>2018-15354</t>
         </is>
       </c>
       <c r="T81" s="0" t="d">
@@ -9765,11 +9686,11 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>MEDU8191143</t>
+          <t>TCLU5009143</t>
         </is>
       </c>
       <c r="C82" s="0" t="n">
@@ -9826,20 +9747,20 @@
       </c>
       <c r="Q82" s="0" t="inlineStr">
         <is>
-          <t>EU13742274</t>
+          <t>EU13742352</t>
         </is>
       </c>
       <c r="R82" s="0"/>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>2018-15425</t>
+          <t>2018-15358</t>
         </is>
       </c>
       <c r="T82" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U82" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V82" s="0" t="inlineStr">
         <is>
@@ -9872,11 +9793,11 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>TCLU5856699</t>
+          <t>MEDU8191143</t>
         </is>
       </c>
       <c r="C83" s="0" t="n">
@@ -9933,13 +9854,13 @@
       </c>
       <c r="Q83" s="0" t="inlineStr">
         <is>
-          <t>EU13742275</t>
+          <t>EU13742274</t>
         </is>
       </c>
       <c r="R83" s="0"/>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>2018-15433</t>
+          <t>2018-15425</t>
         </is>
       </c>
       <c r="T83" s="0" t="d">
@@ -9979,11 +9900,11 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>CAXU9101130</t>
+          <t>TCLU5856699</t>
         </is>
       </c>
       <c r="C84" s="0" t="n">
@@ -10040,13 +9961,13 @@
       </c>
       <c r="Q84" s="0" t="inlineStr">
         <is>
-          <t>EU13742360</t>
+          <t>EU13742275</t>
         </is>
       </c>
       <c r="R84" s="0"/>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>2018-15438</t>
+          <t>2018-15433</t>
         </is>
       </c>
       <c r="T84" s="0" t="d">
@@ -10086,11 +10007,11 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>FSCU8023974</t>
+          <t>CAXU9101130</t>
         </is>
       </c>
       <c r="C85" s="0" t="n">
@@ -10147,20 +10068,20 @@
       </c>
       <c r="Q85" s="0" t="inlineStr">
         <is>
-          <t>EU13742277</t>
+          <t>EU13742360</t>
         </is>
       </c>
       <c r="R85" s="0"/>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>2018-15434</t>
+          <t>2018-15438</t>
         </is>
       </c>
       <c r="T85" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U85" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="V85" s="0" t="inlineStr">
         <is>
@@ -10193,11 +10114,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>CAIU7720386</t>
+          <t>FSCU8023974</t>
         </is>
       </c>
       <c r="C86" s="0" t="n">
@@ -10254,13 +10175,13 @@
       </c>
       <c r="Q86" s="0" t="inlineStr">
         <is>
-          <t>EU13742355</t>
+          <t>EU13742277</t>
         </is>
       </c>
       <c r="R86" s="0"/>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>2018-15453</t>
+          <t>2018-15434</t>
         </is>
       </c>
       <c r="T86" s="0" t="d">
@@ -10300,11 +10221,11 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>MEDU8397999</t>
+          <t>CAIU7720386</t>
         </is>
       </c>
       <c r="C87" s="0" t="n">
@@ -10361,13 +10282,13 @@
       </c>
       <c r="Q87" s="0" t="inlineStr">
         <is>
-          <t>EU13742273</t>
+          <t>EU13742355</t>
         </is>
       </c>
       <c r="R87" s="0"/>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>2018-15498</t>
+          <t>2018-15453</t>
         </is>
       </c>
       <c r="T87" s="0" t="d">
@@ -10407,11 +10328,11 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>TEMU8701300</t>
+          <t>MEDU8397999</t>
         </is>
       </c>
       <c r="C88" s="0" t="n">
@@ -10468,13 +10389,13 @@
       </c>
       <c r="Q88" s="0" t="inlineStr">
         <is>
-          <t>EU13742276</t>
+          <t>EU13742273</t>
         </is>
       </c>
       <c r="R88" s="0"/>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>2018-15503</t>
+          <t>2018-15498</t>
         </is>
       </c>
       <c r="T88" s="0" t="d">
@@ -10514,11 +10435,11 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>DFSU6692110</t>
+          <t>TEMU8701300</t>
         </is>
       </c>
       <c r="C89" s="0" t="n">
@@ -10575,20 +10496,20 @@
       </c>
       <c r="Q89" s="0" t="inlineStr">
         <is>
-          <t>EU13742354</t>
+          <t>EU13742276</t>
         </is>
       </c>
       <c r="R89" s="0"/>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>2018-15596</t>
+          <t>2018-15503</t>
         </is>
       </c>
       <c r="T89" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U89" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V89" s="0" t="inlineStr">
         <is>
@@ -10621,11 +10542,11 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>GESU5071357</t>
+          <t>DFSU6692110</t>
         </is>
       </c>
       <c r="C90" s="0" t="n">
@@ -10682,20 +10603,20 @@
       </c>
       <c r="Q90" s="0" t="inlineStr">
         <is>
-          <t>EU13742279</t>
+          <t>EU13742354</t>
         </is>
       </c>
       <c r="R90" s="0"/>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>2018-15639</t>
+          <t>2018-15596</t>
         </is>
       </c>
       <c r="T90" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U90" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-16T00:00:00</v>
       </c>
       <c r="V90" s="0" t="inlineStr">
         <is>
@@ -10728,11 +10649,11 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>MSCU7563770</t>
+          <t>GESU5071357</t>
         </is>
       </c>
       <c r="C91" s="0" t="n">
@@ -10789,13 +10710,13 @@
       </c>
       <c r="Q91" s="0" t="inlineStr">
         <is>
-          <t>EU13742271</t>
+          <t>EU13742279</t>
         </is>
       </c>
       <c r="R91" s="0"/>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>2018-15641</t>
+          <t>2018-15639</t>
         </is>
       </c>
       <c r="T91" s="0" t="d">
@@ -10835,11 +10756,11 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>CRXU9720458</t>
+          <t>MSCU7563770</t>
         </is>
       </c>
       <c r="C92" s="0" t="n">
@@ -10896,13 +10817,13 @@
       </c>
       <c r="Q92" s="0" t="inlineStr">
         <is>
-          <t>EU13742357</t>
+          <t>EU13742271</t>
         </is>
       </c>
       <c r="R92" s="0"/>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>2018-15640</t>
+          <t>2018-15641</t>
         </is>
       </c>
       <c r="T92" s="0" t="d">
@@ -10942,11 +10863,11 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>TCNU7224137</t>
+          <t>CRXU9720458</t>
         </is>
       </c>
       <c r="C93" s="0" t="n">
@@ -11003,13 +10924,13 @@
       </c>
       <c r="Q93" s="0" t="inlineStr">
         <is>
-          <t>EU13742359</t>
+          <t>EU13742357</t>
         </is>
       </c>
       <c r="R93" s="0"/>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>2018-15644</t>
+          <t>2018-15640</t>
         </is>
       </c>
       <c r="T93" s="0" t="d">
@@ -11049,11 +10970,11 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>BMOU6169108</t>
+          <t>TCNU7224137</t>
         </is>
       </c>
       <c r="C94" s="0" t="n">
@@ -11110,13 +11031,13 @@
       </c>
       <c r="Q94" s="0" t="inlineStr">
         <is>
-          <t>EU13742278</t>
+          <t>EU13742359</t>
         </is>
       </c>
       <c r="R94" s="0"/>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>2018-15642</t>
+          <t>2018-15644</t>
         </is>
       </c>
       <c r="T94" s="0" t="d">
@@ -11156,11 +11077,11 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>MEDU4512245</t>
+          <t>BMOU6169108</t>
         </is>
       </c>
       <c r="C95" s="0" t="n">
@@ -11217,13 +11138,13 @@
       </c>
       <c r="Q95" s="0" t="inlineStr">
         <is>
-          <t>EU13742353</t>
+          <t>EU13742278</t>
         </is>
       </c>
       <c r="R95" s="0"/>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>2018-15643</t>
+          <t>2018-15642</t>
         </is>
       </c>
       <c r="T95" s="0" t="d">
@@ -11263,11 +11184,11 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>9529</v>
+        <v>9528</v>
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>FCIU8774493</t>
+          <t>MEDU4512245</t>
         </is>
       </c>
       <c r="C96" s="0" t="n">
@@ -11324,20 +11245,20 @@
       </c>
       <c r="Q96" s="0" t="inlineStr">
         <is>
-          <t>EU14338684</t>
+          <t>EU13742353</t>
         </is>
       </c>
       <c r="R96" s="0"/>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>2018-15365</t>
+          <t>2018-15643</t>
         </is>
       </c>
       <c r="T96" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U96" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="V96" s="0" t="inlineStr">
         <is>
@@ -11354,11 +11275,11 @@
       </c>
       <c r="Y96" s="0" t="inlineStr">
         <is>
-          <t>MSCUM9896194</t>
+          <t>MSCUDO381455</t>
         </is>
       </c>
       <c r="Z96" s="0" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="AA96" s="0"/>
       <c r="AB96" s="0" t="inlineStr">
@@ -11370,11 +11291,11 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>GLDU7359380</t>
+          <t>FCIU8774493</t>
         </is>
       </c>
       <c r="C97" s="0" t="n">
@@ -11431,20 +11352,20 @@
       </c>
       <c r="Q97" s="0" t="inlineStr">
         <is>
-          <t>EU14338680</t>
+          <t>EU14338684</t>
         </is>
       </c>
       <c r="R97" s="0"/>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>2018-15437</t>
+          <t>2018-15365</t>
         </is>
       </c>
       <c r="T97" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U97" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V97" s="0" t="inlineStr">
         <is>
@@ -11477,11 +11398,11 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>9531</v>
+        <v>9530</v>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>MSCU9926339</t>
+          <t>GLDU7359380</t>
         </is>
       </c>
       <c r="C98" s="0" t="n">
@@ -11538,13 +11459,13 @@
       </c>
       <c r="Q98" s="0" t="inlineStr">
         <is>
-          <t>EU14338689</t>
+          <t>EU14338680</t>
         </is>
       </c>
       <c r="R98" s="0"/>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>2018-15431</t>
+          <t>2018-15437</t>
         </is>
       </c>
       <c r="T98" s="0" t="d">
@@ -11584,11 +11505,11 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>DFSU6696883</t>
+          <t>MSCU9926339</t>
         </is>
       </c>
       <c r="C99" s="0" t="n">
@@ -11645,13 +11566,13 @@
       </c>
       <c r="Q99" s="0" t="inlineStr">
         <is>
-          <t>EU14338688</t>
+          <t>EU14338689</t>
         </is>
       </c>
       <c r="R99" s="0"/>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>2018-15432</t>
+          <t>2018-15431</t>
         </is>
       </c>
       <c r="T99" s="0" t="d">
@@ -11691,11 +11612,11 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>9533</v>
+        <v>9532</v>
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>MSCU7569680</t>
+          <t>DFSU6696883</t>
         </is>
       </c>
       <c r="C100" s="0" t="n">
@@ -11752,20 +11673,20 @@
       </c>
       <c r="Q100" s="0" t="inlineStr">
         <is>
-          <t>EU14338674</t>
+          <t>EU14338688</t>
         </is>
       </c>
       <c r="R100" s="0"/>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>2018-15419</t>
+          <t>2018-15432</t>
         </is>
       </c>
       <c r="T100" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U100" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="V100" s="0" t="inlineStr">
         <is>
@@ -11798,11 +11719,11 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>9534</v>
+        <v>9533</v>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>SEGU6138249</t>
+          <t>MSCU7569680</t>
         </is>
       </c>
       <c r="C101" s="0" t="n">
@@ -11859,13 +11780,13 @@
       </c>
       <c r="Q101" s="0" t="inlineStr">
         <is>
-          <t>EU14338691</t>
+          <t>EU14338674</t>
         </is>
       </c>
       <c r="R101" s="0"/>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>2018-15436</t>
+          <t>2018-15419</t>
         </is>
       </c>
       <c r="T101" s="0" t="d">
@@ -11905,11 +11826,11 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>BMOU4596306</t>
+          <t>SEGU6138249</t>
         </is>
       </c>
       <c r="C102" s="0" t="n">
@@ -11966,13 +11887,13 @@
       </c>
       <c r="Q102" s="0" t="inlineStr">
         <is>
-          <t>EU14338679</t>
+          <t>EU14338691</t>
         </is>
       </c>
       <c r="R102" s="0"/>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>2018-15445</t>
+          <t>2018-15436</t>
         </is>
       </c>
       <c r="T102" s="0" t="d">
@@ -12012,11 +11933,11 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>GLDU7724523</t>
+          <t>BMOU4596306</t>
         </is>
       </c>
       <c r="C103" s="0" t="n">
@@ -12073,13 +11994,13 @@
       </c>
       <c r="Q103" s="0" t="inlineStr">
         <is>
-          <t>EU14338683</t>
+          <t>EU14338679</t>
         </is>
       </c>
       <c r="R103" s="0"/>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>2018-15435</t>
+          <t>2018-15445</t>
         </is>
       </c>
       <c r="T103" s="0" t="d">
@@ -12119,11 +12040,11 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>CRXU9904481</t>
+          <t>GLDU7724523</t>
         </is>
       </c>
       <c r="C104" s="0" t="n">
@@ -12180,20 +12101,20 @@
       </c>
       <c r="Q104" s="0" t="inlineStr">
         <is>
-          <t>EU14338678</t>
+          <t>EU14338683</t>
         </is>
       </c>
       <c r="R104" s="0"/>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>2018-15588</t>
+          <t>2018-15435</t>
         </is>
       </c>
       <c r="T104" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U104" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
+        <v>2018-09-14T00:00:00</v>
       </c>
       <c r="V104" s="0" t="inlineStr">
         <is>
@@ -12226,11 +12147,11 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>TCNU7227692</t>
+          <t>CRXU9904481</t>
         </is>
       </c>
       <c r="C105" s="0" t="n">
@@ -12287,13 +12208,13 @@
       </c>
       <c r="Q105" s="0" t="inlineStr">
         <is>
-          <t>EU14338676</t>
+          <t>EU14338678</t>
         </is>
       </c>
       <c r="R105" s="0"/>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>2018-15587</t>
+          <t>2018-15588</t>
         </is>
       </c>
       <c r="T105" s="0" t="d">
@@ -12333,11 +12254,11 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>MSCU9205667</t>
+          <t>TCNU7227692</t>
         </is>
       </c>
       <c r="C106" s="0" t="n">
@@ -12394,13 +12315,13 @@
       </c>
       <c r="Q106" s="0" t="inlineStr">
         <is>
-          <t>EU14338675</t>
+          <t>EU14338676</t>
         </is>
       </c>
       <c r="R106" s="0"/>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>2018-15589</t>
+          <t>2018-15587</t>
         </is>
       </c>
       <c r="T106" s="0" t="d">
@@ -12440,11 +12361,11 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>GESU6433260</t>
+          <t>MSCU9205667</t>
         </is>
       </c>
       <c r="C107" s="0" t="n">
@@ -12501,13 +12422,13 @@
       </c>
       <c r="Q107" s="0" t="inlineStr">
         <is>
-          <t>EU14338681</t>
+          <t>EU14338675</t>
         </is>
       </c>
       <c r="R107" s="0"/>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>2018-15597</t>
+          <t>2018-15589</t>
         </is>
       </c>
       <c r="T107" s="0" t="d">
@@ -12547,11 +12468,11 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>TCLU9098386</t>
+          <t>GESU6433260</t>
         </is>
       </c>
       <c r="C108" s="0" t="n">
@@ -12608,13 +12529,13 @@
       </c>
       <c r="Q108" s="0" t="inlineStr">
         <is>
-          <t>EU14338690</t>
+          <t>EU14338681</t>
         </is>
       </c>
       <c r="R108" s="0"/>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>2018-15599</t>
+          <t>2018-15597</t>
         </is>
       </c>
       <c r="T108" s="0" t="d">
@@ -12654,11 +12575,11 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>9542</v>
+        <v>9541</v>
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>GLDU7299677</t>
+          <t>TCLU9098386</t>
         </is>
       </c>
       <c r="C109" s="0" t="n">
@@ -12715,13 +12636,13 @@
       </c>
       <c r="Q109" s="0" t="inlineStr">
         <is>
-          <t>EU14338682</t>
+          <t>EU14338690</t>
         </is>
       </c>
       <c r="R109" s="0"/>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>2018-15600</t>
+          <t>2018-15599</t>
         </is>
       </c>
       <c r="T109" s="0" t="d">
@@ -12761,11 +12682,11 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>9543</v>
+        <v>9542</v>
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>TCNU7908377</t>
+          <t>GLDU7299677</t>
         </is>
       </c>
       <c r="C110" s="0" t="n">
@@ -12822,13 +12743,13 @@
       </c>
       <c r="Q110" s="0" t="inlineStr">
         <is>
-          <t>EU14338677</t>
+          <t>EU14338682</t>
         </is>
       </c>
       <c r="R110" s="0"/>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>2018-15598</t>
+          <t>2018-15600</t>
         </is>
       </c>
       <c r="T110" s="0" t="d">
@@ -12868,11 +12789,11 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>9544</v>
+        <v>9543</v>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>FCIU7014480</t>
+          <t>TCNU7908377</t>
         </is>
       </c>
       <c r="C111" s="0" t="n">
@@ -12929,20 +12850,20 @@
       </c>
       <c r="Q111" s="0" t="inlineStr">
         <is>
-          <t>EU14338693</t>
+          <t>EU14338677</t>
         </is>
       </c>
       <c r="R111" s="0"/>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>2018-15604</t>
+          <t>2018-15598</t>
         </is>
       </c>
       <c r="T111" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U111" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-16T00:00:00</v>
       </c>
       <c r="V111" s="0" t="inlineStr">
         <is>
@@ -12975,11 +12896,11 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>9545</v>
+        <v>9544</v>
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>MSCU7053360</t>
+          <t>FCIU7014480</t>
         </is>
       </c>
       <c r="C112" s="0" t="n">
@@ -13036,13 +12957,13 @@
       </c>
       <c r="Q112" s="0" t="inlineStr">
         <is>
-          <t>EU14338686</t>
+          <t>EU14338693</t>
         </is>
       </c>
       <c r="R112" s="0"/>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>2018-15594</t>
+          <t>2018-15604</t>
         </is>
       </c>
       <c r="T112" s="0" t="d">
@@ -13082,11 +13003,11 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>9546</v>
+        <v>9545</v>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>MSCU7248844</t>
+          <t>MSCU7053360</t>
         </is>
       </c>
       <c r="C113" s="0" t="n">
@@ -13143,13 +13064,13 @@
       </c>
       <c r="Q113" s="0" t="inlineStr">
         <is>
-          <t>EU14338692</t>
+          <t>EU14338686</t>
         </is>
       </c>
       <c r="R113" s="0"/>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>2018-15603</t>
+          <t>2018-15594</t>
         </is>
       </c>
       <c r="T113" s="0" t="d">
@@ -13189,11 +13110,11 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>9547</v>
+        <v>9546</v>
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>TCNU8798736</t>
+          <t>MSCU7248844</t>
         </is>
       </c>
       <c r="C114" s="0" t="n">
@@ -13250,13 +13171,13 @@
       </c>
       <c r="Q114" s="0" t="inlineStr">
         <is>
-          <t>EU14338687</t>
+          <t>EU14338692</t>
         </is>
       </c>
       <c r="R114" s="0"/>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>2018-15602</t>
+          <t>2018-15603</t>
         </is>
       </c>
       <c r="T114" s="0" t="d">
@@ -13296,11 +13217,11 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>9548</v>
+        <v>9547</v>
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>TTNU9764414</t>
+          <t>TCNU8798736</t>
         </is>
       </c>
       <c r="C115" s="0" t="n">
@@ -13357,13 +13278,13 @@
       </c>
       <c r="Q115" s="0" t="inlineStr">
         <is>
-          <t>EU14338685</t>
+          <t>EU14338687</t>
         </is>
       </c>
       <c r="R115" s="0"/>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>2018-15601</t>
+          <t>2018-15602</t>
         </is>
       </c>
       <c r="T115" s="0" t="d">
@@ -13403,11 +13324,11 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>9569</v>
+        <v>9548</v>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>BMOU6759779</t>
+          <t>TTNU9764414</t>
         </is>
       </c>
       <c r="C116" s="0" t="n">
@@ -13445,7 +13366,7 @@
       </c>
       <c r="J116" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>KARNAPHULI LTD</t>
         </is>
       </c>
       <c r="K116" s="0" t="inlineStr">
@@ -13462,20 +13383,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q116" s="0" t="n">
-        <v>1541802</v>
+      <c r="Q116" s="0" t="inlineStr">
+        <is>
+          <t>EU14338685</t>
+        </is>
       </c>
       <c r="R116" s="0"/>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>2018-15369</t>
+          <t>2018-15601</t>
         </is>
       </c>
       <c r="T116" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U116" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="V116" s="0" t="inlineStr">
         <is>
@@ -13492,11 +13415,11 @@
       </c>
       <c r="Y116" s="0" t="inlineStr">
         <is>
-          <t>MEDUBT495018</t>
+          <t>MSCUM9896194</t>
         </is>
       </c>
       <c r="Z116" s="0" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="AA116" s="0"/>
       <c r="AB116" s="0" t="inlineStr">
@@ -13508,11 +13431,11 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>9570</v>
+        <v>9569</v>
       </c>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>MEDU8392913</t>
+          <t>BMOU6759779</t>
         </is>
       </c>
       <c r="C117" s="0" t="n">
@@ -13568,12 +13491,12 @@
         </is>
       </c>
       <c r="Q117" s="0" t="n">
-        <v>1215528</v>
+        <v>1541802</v>
       </c>
       <c r="R117" s="0"/>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>2018-15374</t>
+          <t>2018-15369</t>
         </is>
       </c>
       <c r="T117" s="0" t="d">
@@ -13613,11 +13536,11 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>9571</v>
+        <v>9570</v>
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>BMOU4318218</t>
+          <t>MEDU8392913</t>
         </is>
       </c>
       <c r="C118" s="0" t="n">
@@ -13673,12 +13596,12 @@
         </is>
       </c>
       <c r="Q118" s="0" t="n">
-        <v>4151030</v>
+        <v>1215528</v>
       </c>
       <c r="R118" s="0"/>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>2018-15381</t>
+          <t>2018-15374</t>
         </is>
       </c>
       <c r="T118" s="0" t="d">
@@ -13718,11 +13641,11 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>9572</v>
+        <v>9571</v>
       </c>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>MEDU4649705</t>
+          <t>BMOU4318218</t>
         </is>
       </c>
       <c r="C119" s="0" t="n">
@@ -13778,12 +13701,12 @@
         </is>
       </c>
       <c r="Q119" s="0" t="n">
-        <v>9457108</v>
+        <v>4151030</v>
       </c>
       <c r="R119" s="0"/>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>2018-15380</t>
+          <t>2018-15381</t>
         </is>
       </c>
       <c r="T119" s="0" t="d">
@@ -13823,11 +13746,11 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>9573</v>
+        <v>9572</v>
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>MSCU9526883</t>
+          <t>MEDU4649705</t>
         </is>
       </c>
       <c r="C120" s="0" t="n">
@@ -13883,12 +13806,12 @@
         </is>
       </c>
       <c r="Q120" s="0" t="n">
-        <v>1119127</v>
+        <v>9457108</v>
       </c>
       <c r="R120" s="0"/>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>2018-15375</t>
+          <t>2018-15380</t>
         </is>
       </c>
       <c r="T120" s="0" t="d">
@@ -13928,11 +13851,11 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>9574</v>
+        <v>9573</v>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>XINU8215006</t>
+          <t>MSCU9526883</t>
         </is>
       </c>
       <c r="C121" s="0" t="n">
@@ -13988,12 +13911,12 @@
         </is>
       </c>
       <c r="Q121" s="0" t="n">
-        <v>307067</v>
+        <v>1119127</v>
       </c>
       <c r="R121" s="0"/>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>2018-15368</t>
+          <t>2018-15375</t>
         </is>
       </c>
       <c r="T121" s="0" t="d">
@@ -14033,11 +13956,11 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>9575</v>
+        <v>9574</v>
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>CRXU9755834</t>
+          <t>XINU8215006</t>
         </is>
       </c>
       <c r="C122" s="0" t="n">
@@ -14093,12 +14016,12 @@
         </is>
       </c>
       <c r="Q122" s="0" t="n">
-        <v>260051</v>
+        <v>307067</v>
       </c>
       <c r="R122" s="0"/>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>2018-15376</t>
+          <t>2018-15368</t>
         </is>
       </c>
       <c r="T122" s="0" t="d">
@@ -14138,11 +14061,11 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>9576</v>
+        <v>9575</v>
       </c>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>MEDU4076558</t>
+          <t>CRXU9755834</t>
         </is>
       </c>
       <c r="C123" s="0" t="n">
@@ -14150,7 +14073,7 @@
       </c>
       <c r="D123" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E123" s="0" t="inlineStr">
@@ -14198,12 +14121,12 @@
         </is>
       </c>
       <c r="Q123" s="0" t="n">
-        <v>70692010</v>
+        <v>260051</v>
       </c>
       <c r="R123" s="0"/>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>2018-15392</t>
+          <t>2018-15376</t>
         </is>
       </c>
       <c r="T123" s="0" t="d">
@@ -14243,11 +14166,11 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>9577</v>
+        <v>9576</v>
       </c>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>MSCU4917329</t>
+          <t>MEDU4076558</t>
         </is>
       </c>
       <c r="C124" s="0" t="n">
@@ -14303,12 +14226,12 @@
         </is>
       </c>
       <c r="Q124" s="0" t="n">
-        <v>5701335</v>
+        <v>70692010</v>
       </c>
       <c r="R124" s="0"/>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>2018-15390</t>
+          <t>2018-15392</t>
         </is>
       </c>
       <c r="T124" s="0" t="d">
@@ -14348,15 +14271,15 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>9661</v>
+        <v>9577</v>
       </c>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t>FCIU3983504</t>
+          <t>MSCU4917329</t>
         </is>
       </c>
       <c r="C125" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
@@ -14380,59 +14303,47 @@
       </c>
       <c r="H125" s="0" t="inlineStr">
         <is>
-          <t>OEL INDIA</t>
+          <t>TR ARAMIS</t>
         </is>
       </c>
       <c r="I125" s="0" t="inlineStr">
         <is>
-          <t>2738/2018</t>
+          <t>2717/2018</t>
         </is>
       </c>
       <c r="J125" s="0" t="inlineStr">
         <is>
-          <t>SHAFIUL ALAM STEEL RE-ROLLING MILLS</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K125" s="0" t="inlineStr">
         <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="L125" s="0" t="inlineStr">
-        <is>
-          <t>DOORS</t>
-        </is>
-      </c>
-      <c r="M125" s="0" t="inlineStr">
-        <is>
-          <t>Door stiffeners hinges side edge.</t>
-        </is>
-      </c>
-      <c r="N125" s="0" t="inlineStr">
-        <is>
-          <t>B/DOOR LOCKBAR BENT 02 PCS .</t>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L125" s="0"/>
+      <c r="M125" s="0"/>
+      <c r="N125" s="0"/>
       <c r="O125" s="0"/>
       <c r="P125" s="0" t="inlineStr">
         <is>
-          <t>SCRAP</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="Q125" s="0" t="n">
-        <v>5061602</v>
+        <v>5701335</v>
       </c>
       <c r="R125" s="0"/>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>2018-15529</t>
+          <t>2018-15390</t>
         </is>
       </c>
       <c r="T125" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
       <c r="U125" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-13T00:00:00</v>
       </c>
       <c r="V125" s="0" t="inlineStr">
         <is>
@@ -14449,11 +14360,11 @@
       </c>
       <c r="Y125" s="0" t="inlineStr">
         <is>
-          <t>MEDUUU261910</t>
+          <t>MEDUBT495018</t>
         </is>
       </c>
       <c r="Z125" s="0" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="AA125" s="0"/>
       <c r="AB125" s="0" t="inlineStr">
@@ -14517,17 +14428,17 @@
       </c>
       <c r="L126" s="0" t="inlineStr">
         <is>
-          <t>PANELS</t>
+          <t>DOORS</t>
         </is>
       </c>
       <c r="M126" s="0" t="inlineStr">
         <is>
-          <t>Right side panel </t>
+          <t>Door stiffeners hinges side edge.</t>
         </is>
       </c>
       <c r="N126" s="0" t="inlineStr">
         <is>
-          <t>R/SIDE PANEL CUT 10'X05' &amp; 04'.</t>
+          <t>B/DOOR LOCKBAR BENT 02 PCS .</t>
         </is>
       </c>
       <c r="O126" s="0"/>
@@ -14644,7 +14555,7 @@
       </c>
       <c r="N127" s="0" t="inlineStr">
         <is>
-          <t>L/SIDE PANEL CUT 02' AT 02 PLS.</t>
+          <t>R/SIDE PANEL CUT 10'X05' &amp; 04'.</t>
         </is>
       </c>
       <c r="O127" s="0"/>
@@ -14699,11 +14610,11 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>9662</v>
+        <v>9661</v>
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>BMOU2767523</t>
+          <t>FCIU3983504</t>
         </is>
       </c>
       <c r="C128" s="0" t="n">
@@ -14746,12 +14657,24 @@
       </c>
       <c r="K128" s="0" t="inlineStr">
         <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L128" s="0"/>
-      <c r="M128" s="0"/>
-      <c r="N128" s="0"/>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="L128" s="0" t="inlineStr">
+        <is>
+          <t>PANELS</t>
+        </is>
+      </c>
+      <c r="M128" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel </t>
+        </is>
+      </c>
+      <c r="N128" s="0" t="inlineStr">
+        <is>
+          <t>L/SIDE PANEL CUT 02' AT 02 PLS.</t>
+        </is>
+      </c>
       <c r="O128" s="0"/>
       <c r="P128" s="0" t="inlineStr">
         <is>
@@ -14759,12 +14682,12 @@
         </is>
       </c>
       <c r="Q128" s="0" t="n">
-        <v>5061510</v>
+        <v>5061602</v>
       </c>
       <c r="R128" s="0"/>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>2018-15531</t>
+          <t>2018-15529</t>
         </is>
       </c>
       <c r="T128" s="0" t="d">
@@ -14804,11 +14727,11 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>9663</v>
+        <v>9662</v>
       </c>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>FCIU2698879</t>
+          <t>BMOU2767523</t>
         </is>
       </c>
       <c r="C129" s="0" t="n">
@@ -14864,12 +14787,12 @@
         </is>
       </c>
       <c r="Q129" s="0" t="n">
-        <v>5061575</v>
+        <v>5061510</v>
       </c>
       <c r="R129" s="0"/>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>2018-15536</t>
+          <t>2018-15531</t>
         </is>
       </c>
       <c r="T129" s="0" t="d">
@@ -14909,11 +14832,11 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>9664</v>
+        <v>9663</v>
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>CXDU1234128</t>
+          <t>FCIU2698879</t>
         </is>
       </c>
       <c r="C130" s="0" t="n">
@@ -14969,12 +14892,12 @@
         </is>
       </c>
       <c r="Q130" s="0" t="n">
-        <v>5061556</v>
+        <v>5061575</v>
       </c>
       <c r="R130" s="0"/>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>2018-15534</t>
+          <t>2018-15536</t>
         </is>
       </c>
       <c r="T130" s="0" t="d">
@@ -15014,11 +14937,11 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>9665</v>
+        <v>9664</v>
       </c>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t>CAIU3016240</t>
+          <t>CXDU1234128</t>
         </is>
       </c>
       <c r="C131" s="0" t="n">
@@ -15074,12 +14997,12 @@
         </is>
       </c>
       <c r="Q131" s="0" t="n">
-        <v>5061624</v>
+        <v>5061556</v>
       </c>
       <c r="R131" s="0"/>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>2018-15530</t>
+          <t>2018-15534</t>
         </is>
       </c>
       <c r="T131" s="0" t="d">
@@ -15119,11 +15042,11 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>9666</v>
+        <v>9665</v>
       </c>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t>MEDU6567205</t>
+          <t>CAIU3016240</t>
         </is>
       </c>
       <c r="C132" s="0" t="n">
@@ -15179,12 +15102,12 @@
         </is>
       </c>
       <c r="Q132" s="0" t="n">
-        <v>5061515</v>
+        <v>5061624</v>
       </c>
       <c r="R132" s="0"/>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>2018-15532</t>
+          <t>2018-15530</t>
         </is>
       </c>
       <c r="T132" s="0" t="d">
@@ -15224,11 +15147,11 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>9667</v>
+        <v>9666</v>
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>CAIU3751440</t>
+          <t>MEDU6567205</t>
         </is>
       </c>
       <c r="C133" s="0" t="n">
@@ -15284,12 +15207,12 @@
         </is>
       </c>
       <c r="Q133" s="0" t="n">
-        <v>5061507</v>
+        <v>5061515</v>
       </c>
       <c r="R133" s="0"/>
       <c r="S133" s="0" t="inlineStr">
         <is>
-          <t>2018-15535</t>
+          <t>2018-15532</t>
         </is>
       </c>
       <c r="T133" s="0" t="d">
@@ -15329,11 +15252,11 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>9668</v>
+        <v>9667</v>
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t>MEDU3827649</t>
+          <t>CAIU3751440</t>
         </is>
       </c>
       <c r="C134" s="0" t="n">
@@ -15389,12 +15312,12 @@
         </is>
       </c>
       <c r="Q134" s="0" t="n">
-        <v>5061610</v>
+        <v>5061507</v>
       </c>
       <c r="R134" s="0"/>
       <c r="S134" s="0" t="inlineStr">
         <is>
-          <t>2018-15540</t>
+          <t>2018-15535</t>
         </is>
       </c>
       <c r="T134" s="0" t="d">
@@ -15434,11 +15357,11 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>9669</v>
+        <v>9668</v>
       </c>
       <c r="B135" s="0" t="inlineStr">
         <is>
-          <t>MSCU6324390</t>
+          <t>MEDU3827649</t>
         </is>
       </c>
       <c r="C135" s="0" t="n">
@@ -15494,12 +15417,12 @@
         </is>
       </c>
       <c r="Q135" s="0" t="n">
-        <v>5061511</v>
+        <v>5061610</v>
       </c>
       <c r="R135" s="0"/>
       <c r="S135" s="0" t="inlineStr">
         <is>
-          <t>2018-15551</t>
+          <t>2018-15540</t>
         </is>
       </c>
       <c r="T135" s="0" t="d">
@@ -15539,11 +15462,11 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>9670</v>
+        <v>9669</v>
       </c>
       <c r="B136" s="0" t="inlineStr">
         <is>
-          <t>FCIU5994730</t>
+          <t>MSCU6324390</t>
         </is>
       </c>
       <c r="C136" s="0" t="n">
@@ -15586,20 +15509,12 @@
       </c>
       <c r="K136" s="0" t="inlineStr">
         <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="L136" s="0" t="inlineStr">
-        <is>
-          <t>PANELS</t>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L136" s="0"/>
       <c r="M136" s="0"/>
-      <c r="N136" s="0" t="inlineStr">
-        <is>
-          <t>BOTH SIDE PANEL PUSHED OUT 96'X72'X06'</t>
-        </is>
-      </c>
+      <c r="N136" s="0"/>
       <c r="O136" s="0"/>
       <c r="P136" s="0" t="inlineStr">
         <is>
@@ -15607,19 +15522,19 @@
         </is>
       </c>
       <c r="Q136" s="0" t="n">
-        <v>5061406</v>
+        <v>5061511</v>
       </c>
       <c r="R136" s="0"/>
       <c r="S136" s="0" t="inlineStr">
         <is>
-          <t>2018-15562</t>
+          <t>2018-15551</t>
         </is>
       </c>
       <c r="T136" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
       <c r="U136" s="0" t="d">
-        <v>2018-09-16T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="V136" s="0" t="inlineStr">
         <is>
@@ -15652,11 +15567,11 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>9671</v>
+        <v>9670</v>
       </c>
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t>MEDU3644669</t>
+          <t>FCIU5994730</t>
         </is>
       </c>
       <c r="C137" s="0" t="n">
@@ -15699,12 +15614,20 @@
       </c>
       <c r="K137" s="0" t="inlineStr">
         <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L137" s="0"/>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="L137" s="0" t="inlineStr">
+        <is>
+          <t>PANELS</t>
+        </is>
+      </c>
       <c r="M137" s="0"/>
-      <c r="N137" s="0"/>
+      <c r="N137" s="0" t="inlineStr">
+        <is>
+          <t>BOTH SIDE PANEL PUSHED OUT 96'X72'X06'</t>
+        </is>
+      </c>
       <c r="O137" s="0"/>
       <c r="P137" s="0" t="inlineStr">
         <is>
@@ -15712,12 +15635,12 @@
         </is>
       </c>
       <c r="Q137" s="0" t="n">
-        <v>5061479</v>
+        <v>5061406</v>
       </c>
       <c r="R137" s="0"/>
       <c r="S137" s="0" t="inlineStr">
         <is>
-          <t>2018-15559</t>
+          <t>2018-15562</t>
         </is>
       </c>
       <c r="T137" s="0" t="d">
@@ -15757,11 +15680,11 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>9672</v>
+        <v>9671</v>
       </c>
       <c r="B138" s="0" t="inlineStr">
         <is>
-          <t>GATU1113090</t>
+          <t>MEDU3644669</t>
         </is>
       </c>
       <c r="C138" s="0" t="n">
@@ -15817,12 +15740,12 @@
         </is>
       </c>
       <c r="Q138" s="0" t="n">
-        <v>5061556</v>
+        <v>5061479</v>
       </c>
       <c r="R138" s="0"/>
       <c r="S138" s="0" t="inlineStr">
         <is>
-          <t>2018-15561</t>
+          <t>2018-15559</t>
         </is>
       </c>
       <c r="T138" s="0" t="d">
@@ -15862,11 +15785,11 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>9673</v>
+        <v>9672</v>
       </c>
       <c r="B139" s="0" t="inlineStr">
         <is>
-          <t>GLDU3580264</t>
+          <t>GATU1113090</t>
         </is>
       </c>
       <c r="C139" s="0" t="n">
@@ -15922,12 +15845,12 @@
         </is>
       </c>
       <c r="Q139" s="0" t="n">
-        <v>5061403</v>
+        <v>5061556</v>
       </c>
       <c r="R139" s="0"/>
       <c r="S139" s="0" t="inlineStr">
         <is>
-          <t>2018-15558</t>
+          <t>2018-15561</t>
         </is>
       </c>
       <c r="T139" s="0" t="d">
@@ -15967,11 +15890,11 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>9674</v>
+        <v>9673</v>
       </c>
       <c r="B140" s="0" t="inlineStr">
         <is>
-          <t>MEDU3041829</t>
+          <t>GLDU3580264</t>
         </is>
       </c>
       <c r="C140" s="0" t="n">
@@ -16027,12 +15950,12 @@
         </is>
       </c>
       <c r="Q140" s="0" t="n">
-        <v>5061580</v>
+        <v>5061403</v>
       </c>
       <c r="R140" s="0"/>
       <c r="S140" s="0" t="inlineStr">
         <is>
-          <t>2018-15560</t>
+          <t>2018-15558</t>
         </is>
       </c>
       <c r="T140" s="0" t="d">
@@ -16072,11 +15995,11 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>9675</v>
+        <v>9674</v>
       </c>
       <c r="B141" s="0" t="inlineStr">
         <is>
-          <t>MSCU3361169</t>
+          <t>MEDU3041829</t>
         </is>
       </c>
       <c r="C141" s="0" t="n">
@@ -16119,24 +16042,12 @@
       </c>
       <c r="K141" s="0" t="inlineStr">
         <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="L141" s="0" t="inlineStr">
-        <is>
-          <t>PANELS</t>
-        </is>
-      </c>
-      <c r="M141" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel </t>
-        </is>
-      </c>
-      <c r="N141" s="0" t="inlineStr">
-        <is>
-          <t>BOTH SIDE PANEL PUSHED OUT 84'X60'X05'</t>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L141" s="0"/>
+      <c r="M141" s="0"/>
+      <c r="N141" s="0"/>
       <c r="O141" s="0"/>
       <c r="P141" s="0" t="inlineStr">
         <is>
@@ -16144,12 +16055,12 @@
         </is>
       </c>
       <c r="Q141" s="0" t="n">
-        <v>5061474</v>
+        <v>5061580</v>
       </c>
       <c r="R141" s="0"/>
       <c r="S141" s="0" t="inlineStr">
         <is>
-          <t>2018-15563</t>
+          <t>2018-15560</t>
         </is>
       </c>
       <c r="T141" s="0" t="d">
@@ -16189,11 +16100,11 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="B142" s="0" t="inlineStr">
         <is>
-          <t>MEDU1097259</t>
+          <t>MSCU3361169</t>
         </is>
       </c>
       <c r="C142" s="0" t="n">
@@ -16236,12 +16147,24 @@
       </c>
       <c r="K142" s="0" t="inlineStr">
         <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L142" s="0"/>
-      <c r="M142" s="0"/>
-      <c r="N142" s="0"/>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="L142" s="0" t="inlineStr">
+        <is>
+          <t>PANELS</t>
+        </is>
+      </c>
+      <c r="M142" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel </t>
+        </is>
+      </c>
+      <c r="N142" s="0" t="inlineStr">
+        <is>
+          <t>BOTH SIDE PANEL PUSHED OUT 84'X60'X05'</t>
+        </is>
+      </c>
       <c r="O142" s="0"/>
       <c r="P142" s="0" t="inlineStr">
         <is>
@@ -16249,19 +16172,19 @@
         </is>
       </c>
       <c r="Q142" s="0" t="n">
-        <v>5061501</v>
+        <v>5061474</v>
       </c>
       <c r="R142" s="0"/>
       <c r="S142" s="0" t="inlineStr">
         <is>
-          <t>2018-15621</t>
+          <t>2018-15563</t>
         </is>
       </c>
       <c r="T142" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
       <c r="U142" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-09-16T00:00:00</v>
       </c>
       <c r="V142" s="0" t="inlineStr">
         <is>
@@ -16294,19 +16217,19 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>9738</v>
+        <v>9676</v>
       </c>
       <c r="B143" s="0" t="inlineStr">
         <is>
-          <t>BEAU4252672</t>
+          <t>MEDU1097259</t>
         </is>
       </c>
       <c r="C143" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -16326,15 +16249,17 @@
       </c>
       <c r="H143" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="I143" s="0" t="n">
-        <v>277482018</v>
+          <t>OEL INDIA</t>
+        </is>
+      </c>
+      <c r="I143" s="0" t="inlineStr">
+        <is>
+          <t>2738/2018</t>
+        </is>
       </c>
       <c r="J143" s="0" t="inlineStr">
         <is>
-          <t>VIELLATEX SPINNING</t>
+          <t>SHAFIUL ALAM STEEL RE-ROLLING MILLS</t>
         </is>
       </c>
       <c r="K143" s="0" t="inlineStr">
@@ -16348,18 +16273,16 @@
       <c r="O143" s="0"/>
       <c r="P143" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q143" s="0" t="inlineStr">
-        <is>
-          <t>EU13970774</t>
-        </is>
+          <t>SCRAP</t>
+        </is>
+      </c>
+      <c r="Q143" s="0" t="n">
+        <v>5061501</v>
       </c>
       <c r="R143" s="0"/>
       <c r="S143" s="0" t="inlineStr">
         <is>
-          <t>2018-15663</t>
+          <t>2018-15621</t>
         </is>
       </c>
       <c r="T143" s="0" t="d">
@@ -16383,11 +16306,11 @@
       </c>
       <c r="Y143" s="0" t="inlineStr">
         <is>
-          <t>MSCUPD453846</t>
+          <t>MEDUUU261910</t>
         </is>
       </c>
       <c r="Z143" s="0" t="n">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="AA143" s="0"/>
       <c r="AB143" s="0" t="inlineStr">
@@ -16399,11 +16322,11 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>9739</v>
+        <v>9738</v>
       </c>
       <c r="B144" s="0" t="inlineStr">
         <is>
-          <t>TCNU1582637</t>
+          <t>BEAU4252672</t>
         </is>
       </c>
       <c r="C144" s="0" t="n">
@@ -16458,13 +16381,13 @@
       </c>
       <c r="Q144" s="0" t="inlineStr">
         <is>
-          <t>EU13970724</t>
+          <t>EU13970774</t>
         </is>
       </c>
       <c r="R144" s="0"/>
       <c r="S144" s="0" t="inlineStr">
         <is>
-          <t>2018-15670</t>
+          <t>2018-15663</t>
         </is>
       </c>
       <c r="T144" s="0" t="d">
@@ -16504,11 +16427,11 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>9740</v>
+        <v>9739</v>
       </c>
       <c r="B145" s="0" t="inlineStr">
         <is>
-          <t>MEDU4698973</t>
+          <t>TCNU1582637</t>
         </is>
       </c>
       <c r="C145" s="0" t="n">
@@ -16563,13 +16486,13 @@
       </c>
       <c r="Q145" s="0" t="inlineStr">
         <is>
-          <t>EU13970778</t>
+          <t>EU13970724</t>
         </is>
       </c>
       <c r="R145" s="0"/>
       <c r="S145" s="0" t="inlineStr">
         <is>
-          <t>2018-15661</t>
+          <t>2018-15670</t>
         </is>
       </c>
       <c r="T145" s="0" t="d">
@@ -16609,11 +16532,11 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>9741</v>
+        <v>9740</v>
       </c>
       <c r="B146" s="0" t="inlineStr">
         <is>
-          <t>MEDU7683405</t>
+          <t>MEDU4698973</t>
         </is>
       </c>
       <c r="C146" s="0" t="n">
@@ -16668,13 +16591,13 @@
       </c>
       <c r="Q146" s="0" t="inlineStr">
         <is>
-          <t>EU13970775</t>
+          <t>EU13970778</t>
         </is>
       </c>
       <c r="R146" s="0"/>
       <c r="S146" s="0" t="inlineStr">
         <is>
-          <t>2018-15662</t>
+          <t>2018-15661</t>
         </is>
       </c>
       <c r="T146" s="0" t="d">
@@ -16714,11 +16637,11 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>9742</v>
+        <v>9741</v>
       </c>
       <c r="B147" s="0" t="inlineStr">
         <is>
-          <t>MEDU4672876</t>
+          <t>MEDU7683405</t>
         </is>
       </c>
       <c r="C147" s="0" t="n">
@@ -16773,13 +16696,13 @@
       </c>
       <c r="Q147" s="0" t="inlineStr">
         <is>
-          <t>EU13970726</t>
+          <t>EU13970775</t>
         </is>
       </c>
       <c r="R147" s="0"/>
       <c r="S147" s="0" t="inlineStr">
         <is>
-          <t>2018-15665</t>
+          <t>2018-15662</t>
         </is>
       </c>
       <c r="T147" s="0" t="d">
@@ -16819,11 +16742,11 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>9743</v>
+        <v>9742</v>
       </c>
       <c r="B148" s="0" t="inlineStr">
         <is>
-          <t>TCLU5951150</t>
+          <t>MEDU4672876</t>
         </is>
       </c>
       <c r="C148" s="0" t="n">
@@ -16878,13 +16801,13 @@
       </c>
       <c r="Q148" s="0" t="inlineStr">
         <is>
-          <t>EU13970772</t>
+          <t>EU13970726</t>
         </is>
       </c>
       <c r="R148" s="0"/>
       <c r="S148" s="0" t="inlineStr">
         <is>
-          <t>2018-15664</t>
+          <t>2018-15665</t>
         </is>
       </c>
       <c r="T148" s="0" t="d">
@@ -16922,14 +16845,120 @@
       </c>
       <c r="AC148" s="0"/>
     </row>
+    <row r="149">
+      <c r="A149" s="0" t="n">
+        <v>9743</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>TCLU5951150</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="inlineStr">
+        <is>
+          <t>MED</t>
+        </is>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>HAPPY BEE</t>
+        </is>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>277482018</v>
+      </c>
+      <c r="J149" s="0" t="inlineStr">
+        <is>
+          <t>VIELLATEX SPINNING</t>
+        </is>
+      </c>
+      <c r="K149" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L149" s="0"/>
+      <c r="M149" s="0"/>
+      <c r="N149" s="0"/>
+      <c r="O149" s="0"/>
+      <c r="P149" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="Q149" s="0" t="inlineStr">
+        <is>
+          <t>EU13970772</t>
+        </is>
+      </c>
+      <c r="R149" s="0"/>
+      <c r="S149" s="0" t="inlineStr">
+        <is>
+          <t>2018-15664</t>
+        </is>
+      </c>
+      <c r="T149" s="0" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+      <c r="U149" s="0" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="V149" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W149" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="0" t="inlineStr">
+        <is>
+          <t>MSCUPD453846</t>
+        </is>
+      </c>
+      <c r="Z149" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA149" s="0"/>
+      <c r="AB149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC149" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -17158,12 +17187,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -17177,7 +17207,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17235,209 +17265,128 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>10721</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>MSCU9548394</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>MED</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>TR ARAMIS</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>2717/2018</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>MEDUAB003872</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>KARNAPHULI LTD</t>
-        </is>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>EU13961347</t>
-        </is>
-      </c>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>10733</v>
+        <v>10721</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>MEDU4536062</t>
+          <t>MSCU9548394</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -17477,11 +17426,11 @@
         </is>
       </c>
       <c r="K8" s="0" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>MSCUDO381455</t>
+          <t>MEDUAB003872</t>
         </is>
       </c>
       <c r="M8" s="0" t="n">
@@ -17493,11 +17442,7 @@
         </is>
       </c>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="inlineStr">
-        <is>
-          <t>2018-15357</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
       <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -17515,7 +17460,7 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>EU13742272</t>
+          <t>EU13961347</t>
         </is>
       </c>
       <c r="U8" s="0"/>
@@ -17525,11 +17470,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>10734</v>
+        <v>10733</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>TGCU5029979</t>
+          <t>MEDU4536062</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -17585,7 +17530,11 @@
         </is>
       </c>
       <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>2018-15357</t>
+        </is>
+      </c>
       <c r="Q9" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -17603,7 +17552,7 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>EU13742280</t>
+          <t>EU13742272</t>
         </is>
       </c>
       <c r="U9" s="0"/>
@@ -17613,11 +17562,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>10804</v>
+        <v>10734</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BMOU3025046</t>
+          <t>TGCU5029979</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -17625,11 +17574,11 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E10" s="0" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -17657,11 +17606,11 @@
         </is>
       </c>
       <c r="K10" s="0" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>MEDUBT495018</t>
+          <t>MSCUDO381455</t>
         </is>
       </c>
       <c r="M10" s="0" t="n">
@@ -17669,7 +17618,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>KARNAPHULI LTD</t>
         </is>
       </c>
       <c r="O10" s="0"/>
@@ -17689,8 +17638,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T10" s="0" t="n">
-        <v>19194755</v>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>EU13742280</t>
+        </is>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="d">
@@ -17699,11 +17650,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>10805</v>
+        <v>10804</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>CRXU4404483</t>
+          <t>BMOU3025046</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -17775,10 +17726,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T11" s="0" t="inlineStr">
-        <is>
-          <t>UL1787168</t>
-        </is>
+      <c r="T11" s="0" t="n">
+        <v>19194755</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="d">
@@ -17787,11 +17736,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>10806</v>
+        <v>10805</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>MSCU4651120</t>
+          <t>CRXU4404483</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -17863,8 +17812,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T12" s="0" t="n">
-        <v>651532</v>
+      <c r="T12" s="0" t="inlineStr">
+        <is>
+          <t>UL1787168</t>
+        </is>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="d">
@@ -17873,11 +17824,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>10807</v>
+        <v>10806</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>MSCU5838862</t>
+          <t>MSCU4651120</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -17950,7 +17901,7 @@
         </is>
       </c>
       <c r="T13" s="0" t="n">
-        <v>3307864</v>
+        <v>651532</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="d">
@@ -17959,11 +17910,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>10808</v>
+        <v>10807</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MSCU5931131</t>
+          <t>MSCU5838862</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -18036,7 +17987,7 @@
         </is>
       </c>
       <c r="T14" s="0" t="n">
-        <v>3307879</v>
+        <v>3307864</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="d">
@@ -18045,11 +17996,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10809</v>
+        <v>10808</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>TGHU4854725</t>
+          <t>MSCU5931131</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -18122,7 +18073,7 @@
         </is>
       </c>
       <c r="T15" s="0" t="n">
-        <v>7226365</v>
+        <v>3307879</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="d">
@@ -18131,11 +18082,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>10810</v>
+        <v>10809</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>TTNU5089133</t>
+          <t>TGHU4854725</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -18208,7 +18159,7 @@
         </is>
       </c>
       <c r="T16" s="0" t="n">
-        <v>70692339</v>
+        <v>7226365</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="d">
@@ -18217,11 +18168,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>10811</v>
+        <v>10810</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>TTNU5610489</t>
+          <t>TTNU5089133</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -18294,7 +18245,7 @@
         </is>
       </c>
       <c r="T17" s="0" t="n">
-        <v>1541813</v>
+        <v>70692339</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="d">
@@ -18303,11 +18254,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>10812</v>
+        <v>10811</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>TTNU5696733</t>
+          <t>TTNU5610489</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -18380,7 +18331,7 @@
         </is>
       </c>
       <c r="T18" s="0" t="n">
-        <v>1115278</v>
+        <v>1541813</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="d">
@@ -18389,11 +18340,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>10813</v>
+        <v>10812</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>FCIU8064486</t>
+          <t>TTNU5696733</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -18401,11 +18352,11 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E19" s="0" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -18466,7 +18417,7 @@
         </is>
       </c>
       <c r="T19" s="0" t="n">
-        <v>3044034</v>
+        <v>1115278</v>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="d">
@@ -18475,11 +18426,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>10814</v>
+        <v>10813</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>FDCU0095808</t>
+          <t>FCIU8064486</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -18551,10 +18502,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T20" s="0" t="inlineStr">
-        <is>
-          <t>UL1540284</t>
-        </is>
+      <c r="T20" s="0" t="n">
+        <v>3044034</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0" t="d">
@@ -18563,11 +18512,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>10816</v>
+        <v>10814</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>INKU6409451</t>
+          <t>FDCU0095808</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -18639,8 +18588,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T21" s="0" t="n">
-        <v>70692187</v>
+      <c r="T21" s="0" t="inlineStr">
+        <is>
+          <t>UL1540284</t>
+        </is>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0" t="d">
@@ -18649,11 +18600,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>10817</v>
+        <v>10816</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>INKU6654211</t>
+          <t>INKU6409451</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -18725,10 +18676,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T22" s="0" t="inlineStr">
-        <is>
-          <t>UL4107731</t>
-        </is>
+      <c r="T22" s="0" t="n">
+        <v>70692187</v>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="d">
@@ -18737,11 +18686,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>10818</v>
+        <v>10817</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>MEDU7045838</t>
+          <t>INKU6654211</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -18813,8 +18762,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T23" s="0" t="n">
-        <v>70692239</v>
+      <c r="T23" s="0" t="inlineStr">
+        <is>
+          <t>UL4107731</t>
+        </is>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="d">
@@ -18823,11 +18774,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>10819</v>
+        <v>10818</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>MEDU8474204</t>
+          <t>MEDU7045838</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -18899,10 +18850,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T24" s="0" t="inlineStr">
-        <is>
-          <t>UL4107735</t>
-        </is>
+      <c r="T24" s="0" t="n">
+        <v>70692239</v>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0" t="d">
@@ -18911,11 +18860,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>10820</v>
+        <v>10819</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>MSCU7531957</t>
+          <t>MEDU8474204</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -18987,8 +18936,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T25" s="0" t="n">
-        <v>4107712</v>
+      <c r="T25" s="0" t="inlineStr">
+        <is>
+          <t>UL4107735</t>
+        </is>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0" t="d">
@@ -18997,11 +18948,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>10821</v>
+        <v>10820</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>MSCU7668615</t>
+          <t>MSCU7531957</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -19074,7 +19025,7 @@
         </is>
       </c>
       <c r="T26" s="0" t="n">
-        <v>70692121</v>
+        <v>4107712</v>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0" t="d">
@@ -19083,11 +19034,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>10822</v>
+        <v>10821</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TCLU7733369</t>
+          <t>MSCU7668615</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -19159,10 +19110,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T27" s="0" t="inlineStr">
-        <is>
-          <t>UL1541820</t>
-        </is>
+      <c r="T27" s="0" t="n">
+        <v>70692121</v>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0" t="d">
@@ -19171,11 +19120,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>10823</v>
+        <v>10822</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TCLU9865404</t>
+          <t>TCLU7733369</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -19247,8 +19196,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T28" s="0" t="n">
-        <v>307068</v>
+      <c r="T28" s="0" t="inlineStr">
+        <is>
+          <t>UL1541820</t>
+        </is>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0" t="d">
@@ -19257,11 +19208,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>10824</v>
+        <v>10823</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>TCNU2019989</t>
+          <t>TCLU9865404</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -19333,10 +19284,8 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T29" s="0" t="inlineStr">
-        <is>
-          <t>UL4107713</t>
-        </is>
+      <c r="T29" s="0" t="n">
+        <v>307068</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0" t="d">
@@ -19345,11 +19294,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>10825</v>
+        <v>10824</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCNU7609592</t>
+          <t>TCNU2019989</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -19421,8 +19370,10 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T30" s="0" t="n">
-        <v>4514623</v>
+      <c r="T30" s="0" t="inlineStr">
+        <is>
+          <t>UL4107713</t>
+        </is>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="d">
@@ -19431,11 +19382,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>10826</v>
+        <v>10825</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>TEMU8204958</t>
+          <t>TCNU7609592</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -19508,7 +19459,7 @@
         </is>
       </c>
       <c r="T31" s="0" t="n">
-        <v>5832720</v>
+        <v>4514623</v>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="d">
@@ -19517,11 +19468,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>TRLU7030370</t>
+          <t>TEMU8204958</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -19594,7 +19545,7 @@
         </is>
       </c>
       <c r="T32" s="0" t="n">
-        <v>1122786</v>
+        <v>5832720</v>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0" t="d">
@@ -19603,11 +19554,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>TRLU7030745</t>
+          <t>TRLU7030370</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -19680,7 +19631,7 @@
         </is>
       </c>
       <c r="T33" s="0" t="n">
-        <v>359883</v>
+        <v>1122786</v>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0" t="d">
@@ -19689,11 +19640,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>11047</v>
+        <v>10828</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BMOU6659846</t>
+          <t>TRLU7030745</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -19724,18 +19675,20 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>277482018</v>
+          <t>TR ARAMIS</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>2717/2018</t>
+        </is>
       </c>
       <c r="K34" s="0" t="n">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
-          <t>MSCUPD453846</t>
+          <t>MEDUBT495018</t>
         </is>
       </c>
       <c r="M34" s="0" t="n">
@@ -19743,7 +19696,7 @@
       </c>
       <c r="N34" s="0" t="inlineStr">
         <is>
-          <t>VIELLATEX SPINNING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="O34" s="0"/>
@@ -19763,23 +19716,21 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="T34" s="0" t="inlineStr">
-        <is>
-          <t>EU13970728</t>
-        </is>
+      <c r="T34" s="0" t="n">
+        <v>359883</v>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>11048</v>
+        <v>11047</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BMOU6897870</t>
+          <t>BMOU6659846</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -19851,7 +19802,7 @@
       </c>
       <c r="T35" s="0" t="inlineStr">
         <is>
-          <t>EU13970776</t>
+          <t>EU13970728</t>
         </is>
       </c>
       <c r="U35" s="0"/>
@@ -19861,11 +19812,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>11049</v>
+        <v>11048</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>CAIU7009193</t>
+          <t>BMOU6897870</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -19937,7 +19888,7 @@
       </c>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>EU13970779</t>
+          <t>EU13970776</t>
         </is>
       </c>
       <c r="U36" s="0"/>
@@ -19947,11 +19898,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>11050</v>
+        <v>11049</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>CAIU9592279</t>
+          <t>CAIU7009193</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -20023,7 +19974,7 @@
       </c>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>EU13970727</t>
+          <t>EU13970779</t>
         </is>
       </c>
       <c r="U37" s="0"/>
@@ -20033,11 +19984,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>11051</v>
+        <v>11050</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>CAIU9808521</t>
+          <t>CAIU9592279</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -20109,7 +20060,7 @@
       </c>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>EU13970730</t>
+          <t>EU13970727</t>
         </is>
       </c>
       <c r="U38" s="0"/>
@@ -20119,11 +20070,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>11052</v>
+        <v>11051</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>MEDU4388664</t>
+          <t>CAIU9808521</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -20195,7 +20146,7 @@
       </c>
       <c r="T39" s="0" t="inlineStr">
         <is>
-          <t>EU13970780</t>
+          <t>EU13970730</t>
         </is>
       </c>
       <c r="U39" s="0"/>
@@ -20205,11 +20156,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>11053</v>
+        <v>11052</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>MEDU7404558</t>
+          <t>MEDU4388664</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -20281,7 +20232,7 @@
       </c>
       <c r="T40" s="0" t="inlineStr">
         <is>
-          <t>EU13970725</t>
+          <t>EU13970780</t>
         </is>
       </c>
       <c r="U40" s="0"/>
@@ -20291,11 +20242,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>11054</v>
+        <v>11053</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>MEDU7602424</t>
+          <t>MEDU7404558</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -20349,11 +20300,7 @@
         </is>
       </c>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="inlineStr">
-        <is>
-          <t>2018-15671</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
       <c r="Q41" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -20371,7 +20318,7 @@
       </c>
       <c r="T41" s="0" t="inlineStr">
         <is>
-          <t>EU13970773</t>
+          <t>EU13970725</t>
         </is>
       </c>
       <c r="U41" s="0"/>
@@ -20381,11 +20328,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>11055</v>
+        <v>11054</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>TCLU5845312</t>
+          <t>MEDU7602424</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -20439,7 +20386,11 @@
         </is>
       </c>
       <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
+      <c r="P42" s="0" t="inlineStr">
+        <is>
+          <t>2018-15671</t>
+        </is>
+      </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -20457,7 +20408,7 @@
       </c>
       <c r="T42" s="0" t="inlineStr">
         <is>
-          <t>EU13970777</t>
+          <t>EU13970773</t>
         </is>
       </c>
       <c r="U42" s="0"/>
@@ -20467,11 +20418,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>11056</v>
+        <v>11055</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>TCLU9856700</t>
+          <t>TCLU5845312</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -20543,7 +20494,7 @@
       </c>
       <c r="T43" s="0" t="inlineStr">
         <is>
-          <t>EU13970723</t>
+          <t>EU13970777</t>
         </is>
       </c>
       <c r="U43" s="0"/>
@@ -20553,11 +20504,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>11057</v>
+        <v>11056</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>TCNU1604572</t>
+          <t>TCLU9856700</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -20629,7 +20580,7 @@
       </c>
       <c r="T44" s="0" t="inlineStr">
         <is>
-          <t>EU13970722</t>
+          <t>EU13970723</t>
         </is>
       </c>
       <c r="U44" s="0"/>
@@ -20639,11 +20590,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>11058</v>
+        <v>11057</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>TCNU4414787</t>
+          <t>TCNU1604572</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -20715,7 +20666,7 @@
       </c>
       <c r="T45" s="0" t="inlineStr">
         <is>
-          <t>EU13970729</t>
+          <t>EU13970722</t>
         </is>
       </c>
       <c r="U45" s="0"/>
@@ -20725,11 +20676,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>11059</v>
+        <v>11058</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>TCNU8594727</t>
+          <t>TCNU4414787</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -20801,7 +20752,7 @@
       </c>
       <c r="T46" s="0" t="inlineStr">
         <is>
-          <t>EU13970721</t>
+          <t>EU13970729</t>
         </is>
       </c>
       <c r="U46" s="0"/>
@@ -20811,11 +20762,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>11060</v>
+        <v>11059</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>TEMU8620235</t>
+          <t>TCNU8594727</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -20887,7 +20838,7 @@
       </c>
       <c r="T47" s="0" t="inlineStr">
         <is>
-          <t>EU13970771</t>
+          <t>EU13970721</t>
         </is>
       </c>
       <c r="U47" s="0"/>
@@ -20895,14 +20846,101 @@
         <v>2018-09-15T00:00:00</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="n">
+        <v>11060</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>TEMU8620235</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>MED</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>HAPPY BEE</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>277482018</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>MSCUPD453846</t>
+        </is>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
+        <is>
+          <t>VIELLATEX SPINNING</t>
+        </is>
+      </c>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="R48" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="S48" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="T48" s="0" t="inlineStr">
+        <is>
+          <t>EU13970771</t>
+        </is>
+      </c>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0" t="d">
+        <v>2018-09-15T00:00:00</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
